--- a/biology/Médecine/Ectasie/Ectasie.xlsx
+++ b/biology/Médecine/Ectasie/Ectasie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ectasie (du grec ektasis : dilatation) est un terme général décrivant l'agrandissement anormal d'un vaisseau ou d'un organe creux.
-Dans le cas d'une ectasie artérielle on parle d'anévrisme s'il y a des lésions de la media[1] et une dilatation du calibre d'une artère (ex : ectasie aortique). En corollaire, en cas d'atteinte de bronches, il s'agit de bronchiectasies, une classe spécifique d'atteintes bronchiques chroniques.
+Dans le cas d'une ectasie artérielle on parle d'anévrisme s'il y a des lésions de la media et une dilatation du calibre d'une artère (ex : ectasie aortique). En corollaire, en cas d'atteinte de bronches, il s'agit de bronchiectasies, une classe spécifique d'atteintes bronchiques chroniques.
 La maladie de Cacchi-Ricci est l'atteinte congénitale d'une zone des reins (tube collecteur) associant une dilatation en forme de kystes.
-Les varices sont des ectasies de la paroi veineuse[2].
-Mastite à plasmocytes appelé aussi ectasie galactophorique[3].
-L'ectasie cornéenne est la déformation de la cornée. Elle peut être primitive (kératocône) ou secondaire (secondaire à un acte de chirurgie réfractive cornéenne comme le LASIK[4].
+Les varices sont des ectasies de la paroi veineuse.
+Mastite à plasmocytes appelé aussi ectasie galactophorique.
+L'ectasie cornéenne est la déformation de la cornée. Elle peut être primitive (kératocône) ou secondaire (secondaire à un acte de chirurgie réfractive cornéenne comme le LASIK.
 </t>
         </is>
       </c>
